--- a/data/trans_orig/P2404-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P2404-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4753F776-A7C1-44B9-B76D-CC799E2C2C0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B9850CE-FB7A-49A6-A7E5-7F6F9E785F1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8BBDE35A-56FB-410B-9543-3CC339406EE4}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{86645C33-F8AD-436C-AD36-3E28BBA1F49A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="405">
   <si>
     <t>Población según si en las últimas dos semanas han fumado mezcla de tabaco con marihuana o hachís en 2007 (Tasa respuesta: 33,7%)</t>
   </si>
@@ -76,1165 +76,1183 @@
     <t>7,57%</t>
   </si>
   <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>85,89%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>79,42%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>87,84%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>87,69%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>84,64%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>90,02%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si en las últimas dos semanas han fumado mezcla de tabaco con marihuana o hachís en 2012 (Tasa respuesta: 33,26%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>81,16%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>88,66%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>Población según si en las últimas dos semanas han fumado mezcla de tabaco con marihuana o hachís en 2015 (Tasa respuesta: 45,99%)</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
     <t>3,38%</t>
   </si>
   <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>85,85%</t>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
   </si>
   <si>
     <t>96,62%</t>
   </si>
   <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>81,25%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>86,13%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
   </si>
   <si>
     <t>4,15%</t>
   </si>
   <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
   </si>
   <si>
     <t>95,85%</t>
   </si>
   <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>87,83%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si en las últimas dos semanas han fumado mezcla de tabaco con marihuana o hachís en 2012 (Tasa respuesta: 33,26%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>80,99%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>Población según si en las últimas dos semanas han fumado mezcla de tabaco con marihuana o hachís en 2015 (Tasa respuesta: 45,99%)</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
-  </si>
-  <si>
-    <t>86,6%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
+    <t>97,19%</t>
   </si>
 </sst>
 </file>
@@ -1646,7 +1664,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{428F0194-7C49-43AF-8538-4570BDDE5EBA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A321A25-718F-4578-914A-5BA2E2E4881C}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2101,7 +2119,7 @@
         <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="M10" s="7">
         <v>12</v>
@@ -2110,13 +2128,13 @@
         <v>11772</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P10" s="7" t="s">
-        <v>58</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2131,13 +2149,13 @@
         <v>136999</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>94</v>
@@ -2146,13 +2164,13 @@
         <v>93957</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M11" s="7">
         <v>226</v>
@@ -2161,13 +2179,13 @@
         <v>230956</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2223,7 +2241,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2235,13 +2253,13 @@
         <v>8967</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -2250,13 +2268,13 @@
         <v>5162</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="M13" s="7">
         <v>12</v>
@@ -2265,13 +2283,13 @@
         <v>14129</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2283,16 +2301,16 @@
         <v>162</v>
       </c>
       <c r="D14" s="7">
-        <v>161520</v>
+        <v>161521</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H14" s="7">
         <v>103</v>
@@ -2301,13 +2319,13 @@
         <v>100057</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="M14" s="7">
         <v>265</v>
@@ -2316,13 +2334,13 @@
         <v>261577</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2334,7 +2352,7 @@
         <v>170</v>
       </c>
       <c r="D15" s="7">
-        <v>170487</v>
+        <v>170488</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2378,7 +2396,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2390,13 +2408,13 @@
         <v>2000</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>55</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -2405,13 +2423,13 @@
         <v>2972</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -2420,13 +2438,13 @@
         <v>4972</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2441,13 +2459,13 @@
         <v>82329</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H17" s="7">
         <v>54</v>
@@ -2456,13 +2474,13 @@
         <v>56554</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="M17" s="7">
         <v>138</v>
@@ -2471,13 +2489,13 @@
         <v>138883</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2533,7 +2551,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2545,13 +2563,13 @@
         <v>1934</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>55</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -2560,13 +2578,13 @@
         <v>1893</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>55</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -2575,13 +2593,13 @@
         <v>3827</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>111</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2596,13 +2614,13 @@
         <v>123394</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H20" s="7">
         <v>62</v>
@@ -2611,13 +2629,13 @@
         <v>63114</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M20" s="7">
         <v>184</v>
@@ -2626,13 +2644,13 @@
         <v>186508</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2688,7 +2706,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2700,13 +2718,13 @@
         <v>5602</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -2718,10 +2736,10 @@
         <v>55</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="M22" s="7">
         <v>5</v>
@@ -2730,13 +2748,13 @@
         <v>5602</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2751,13 +2769,13 @@
         <v>229374</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H23" s="7">
         <v>158</v>
@@ -2766,10 +2784,10 @@
         <v>161353</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>30</v>
@@ -2781,13 +2799,13 @@
         <v>390727</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2843,7 +2861,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2855,13 +2873,13 @@
         <v>20921</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H25" s="7">
         <v>8</v>
@@ -2870,13 +2888,13 @@
         <v>7961</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="M25" s="7">
         <v>29</v>
@@ -2885,13 +2903,13 @@
         <v>28882</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2906,13 +2924,13 @@
         <v>296557</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="H26" s="7">
         <v>171</v>
@@ -2921,13 +2939,13 @@
         <v>178407</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="M26" s="7">
         <v>457</v>
@@ -2936,13 +2954,13 @@
         <v>474963</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3010,13 +3028,13 @@
         <v>73673</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="H28" s="7">
         <v>30</v>
@@ -3025,13 +3043,13 @@
         <v>31944</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="M28" s="7">
         <v>102</v>
@@ -3040,13 +3058,13 @@
         <v>105617</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3061,13 +3079,13 @@
         <v>1311608</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="H29" s="7">
         <v>815</v>
@@ -3076,13 +3094,13 @@
         <v>831386</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="M29" s="7">
         <v>2092</v>
@@ -3091,13 +3109,13 @@
         <v>2142995</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3153,7 +3171,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -3177,7 +3195,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0248E142-BBA2-4477-BA09-9F05F6E391FE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{136025C8-F77E-487F-926B-141A10D8DB8A}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3194,7 +3212,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3299,39 +3317,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3344,39 +3362,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3389,39 +3407,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3438,13 +3456,13 @@
         <v>7625</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="H7" s="7">
         <v>6</v>
@@ -3453,13 +3471,13 @@
         <v>6066</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="M7" s="7">
         <v>14</v>
@@ -3468,13 +3486,13 @@
         <v>13691</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3489,13 +3507,13 @@
         <v>200480</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="H8" s="7">
         <v>132</v>
@@ -3504,13 +3522,13 @@
         <v>145152</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="M8" s="7">
         <v>315</v>
@@ -3519,13 +3537,13 @@
         <v>345632</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3593,13 +3611,13 @@
         <v>1894</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>55</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -3608,13 +3626,13 @@
         <v>986</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -3623,13 +3641,13 @@
         <v>2880</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3644,13 +3662,13 @@
         <v>125143</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>79</v>
@@ -3659,13 +3677,13 @@
         <v>86447</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M11" s="7">
         <v>203</v>
@@ -3674,13 +3692,13 @@
         <v>211591</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3736,7 +3754,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3748,13 +3766,13 @@
         <v>36025</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -3763,13 +3781,13 @@
         <v>3757</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="M13" s="7">
         <v>36</v>
@@ -3778,13 +3796,13 @@
         <v>39782</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3799,13 +3817,13 @@
         <v>231441</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="H14" s="7">
         <v>178</v>
@@ -3814,13 +3832,13 @@
         <v>196018</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="M14" s="7">
         <v>395</v>
@@ -3829,13 +3847,13 @@
         <v>427459</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3891,7 +3909,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3903,13 +3921,13 @@
         <v>2911</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3921,10 +3939,10 @@
         <v>55</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -3933,13 +3951,13 @@
         <v>2911</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3954,13 +3972,13 @@
         <v>88488</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="H17" s="7">
         <v>64</v>
@@ -3969,10 +3987,10 @@
         <v>65439</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>30</v>
@@ -3984,13 +4002,13 @@
         <v>153928</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4046,7 +4064,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4058,13 +4076,13 @@
         <v>911</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>55</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -4076,10 +4094,10 @@
         <v>55</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -4088,13 +4106,13 @@
         <v>911</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>55</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4109,13 +4127,13 @@
         <v>82829</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H20" s="7">
         <v>64</v>
@@ -4124,10 +4142,10 @@
         <v>66879</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>30</v>
@@ -4139,13 +4157,13 @@
         <v>149708</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4201,7 +4219,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4213,13 +4231,13 @@
         <v>20978</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
@@ -4228,13 +4246,13 @@
         <v>4767</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="M22" s="7">
         <v>23</v>
@@ -4243,13 +4261,13 @@
         <v>25745</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4264,13 +4282,13 @@
         <v>259216</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="H23" s="7">
         <v>173</v>
@@ -4279,13 +4297,13 @@
         <v>188841</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="M23" s="7">
         <v>417</v>
@@ -4294,13 +4312,13 @@
         <v>448057</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4356,7 +4374,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4368,13 +4386,13 @@
         <v>12503</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -4383,13 +4401,13 @@
         <v>969</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>263</v>
+        <v>202</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>55</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="M25" s="7">
         <v>11</v>
@@ -4398,13 +4416,13 @@
         <v>13471</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>111</v>
+        <v>262</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4419,13 +4437,13 @@
         <v>283651</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="H26" s="7">
         <v>189</v>
@@ -4434,13 +4452,13 @@
         <v>207867</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>270</v>
+        <v>212</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M26" s="7">
         <v>453</v>
@@ -4449,13 +4467,13 @@
         <v>491519</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>116</v>
+        <v>268</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4523,13 +4541,13 @@
         <v>82847</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="H28" s="7">
         <v>16</v>
@@ -4538,13 +4556,13 @@
         <v>16545</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="M28" s="7">
         <v>91</v>
@@ -4553,13 +4571,13 @@
         <v>99392</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>280</v>
+        <v>90</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>151</v>
+        <v>276</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4574,13 +4592,13 @@
         <v>1271249</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="H29" s="7">
         <v>879</v>
@@ -4589,13 +4607,13 @@
         <v>956644</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="M29" s="7">
         <v>2073</v>
@@ -4604,13 +4622,13 @@
         <v>2227892</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>160</v>
+        <v>283</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>287</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4666,7 +4684,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -4690,7 +4708,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9153C423-1120-44E7-864F-E5E30E8FA878}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16E0F4AB-FBC5-458E-959D-F0E2A0BCED39}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4707,7 +4725,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4814,13 +4832,13 @@
         <v>15010</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -4829,13 +4847,13 @@
         <v>2642</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>55</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="M4" s="7">
         <v>16</v>
@@ -4844,13 +4862,13 @@
         <v>17652</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4865,13 +4883,13 @@
         <v>170128</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="H5" s="7">
         <v>123</v>
@@ -4880,28 +4898,28 @@
         <v>125897</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M5" s="7">
         <v>279</v>
       </c>
       <c r="N5" s="7">
-        <v>296026</v>
+        <v>296025</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4943,7 +4961,7 @@
         <v>295</v>
       </c>
       <c r="N6" s="7">
-        <v>313678</v>
+        <v>313677</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4969,13 +4987,13 @@
         <v>14389</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>305</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -4984,13 +5002,13 @@
         <v>4935</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>307</v>
+        <v>187</v>
       </c>
       <c r="M7" s="7">
         <v>19</v>
@@ -4999,13 +5017,13 @@
         <v>19324</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>310</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5020,13 +5038,13 @@
         <v>279520</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="H8" s="7">
         <v>165</v>
@@ -5035,13 +5053,13 @@
         <v>173962</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>315</v>
+        <v>194</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="M8" s="7">
         <v>429</v>
@@ -5050,13 +5068,13 @@
         <v>453482</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>317</v>
+        <v>182</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5124,13 +5142,13 @@
         <v>9248</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>321</v>
+        <v>131</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -5139,13 +5157,13 @@
         <v>884</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="M10" s="7">
         <v>11</v>
@@ -5154,13 +5172,13 @@
         <v>10133</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>326</v>
+        <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5175,13 +5193,13 @@
         <v>156180</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>328</v>
+        <v>139</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="H11" s="7">
         <v>114</v>
@@ -5190,13 +5208,13 @@
         <v>110940</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M11" s="7">
         <v>278</v>
@@ -5205,13 +5223,13 @@
         <v>267119</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>333</v>
+        <v>277</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5267,7 +5285,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5279,13 +5297,13 @@
         <v>14293</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>307</v>
+        <v>325</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -5294,13 +5312,13 @@
         <v>4978</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>278</v>
+        <v>329</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="M13" s="7">
         <v>18</v>
@@ -5309,13 +5327,13 @@
         <v>19272</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5330,13 +5348,13 @@
         <v>223785</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>315</v>
+        <v>333</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="H14" s="7">
         <v>146</v>
@@ -5345,13 +5363,13 @@
         <v>154485</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>286</v>
+        <v>338</v>
       </c>
       <c r="M14" s="7">
         <v>360</v>
@@ -5360,13 +5378,13 @@
         <v>378269</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5422,7 +5440,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5434,13 +5452,13 @@
         <v>947</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>55</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5452,10 +5470,10 @@
         <v>55</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>71</v>
+        <v>343</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -5464,13 +5482,13 @@
         <v>947</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>55</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5485,13 +5503,13 @@
         <v>128999</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H17" s="7">
         <v>82</v>
@@ -5500,10 +5518,10 @@
         <v>78322</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>81</v>
+        <v>348</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>30</v>
@@ -5515,13 +5533,13 @@
         <v>207321</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5577,7 +5595,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5589,13 +5607,13 @@
         <v>4857</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>74</v>
+        <v>352</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -5610,7 +5628,7 @@
         <v>55</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>91</v>
+        <v>354</v>
       </c>
       <c r="M19" s="7">
         <v>6</v>
@@ -5619,13 +5637,13 @@
         <v>5730</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>309</v>
+        <v>355</v>
       </c>
       <c r="P19" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5640,13 +5658,13 @@
         <v>133725</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>360</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="H20" s="7">
         <v>86</v>
@@ -5655,13 +5673,13 @@
         <v>88064</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>99</v>
+        <v>361</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M20" s="7">
         <v>217</v>
@@ -5670,13 +5688,13 @@
         <v>221789</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>318</v>
+        <v>362</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5732,7 +5750,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5744,13 +5762,13 @@
         <v>12664</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>109</v>
+        <v>366</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="H22" s="7">
         <v>7</v>
@@ -5759,13 +5777,13 @@
         <v>7060</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="M22" s="7">
         <v>18</v>
@@ -5774,13 +5792,13 @@
         <v>19724</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>12</v>
+        <v>371</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>109</v>
+        <v>372</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>156</v>
+        <v>373</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5795,13 +5813,13 @@
         <v>312865</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>115</v>
+        <v>376</v>
       </c>
       <c r="H23" s="7">
         <v>239</v>
@@ -5810,13 +5828,13 @@
         <v>250958</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="M23" s="7">
         <v>509</v>
@@ -5825,13 +5843,13 @@
         <v>563823</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>23</v>
+        <v>380</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>164</v>
+        <v>381</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>115</v>
+        <v>382</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5887,7 +5905,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5899,13 +5917,13 @@
         <v>14180</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -5914,13 +5932,13 @@
         <v>1935</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>55</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="M25" s="7">
         <v>15</v>
@@ -5929,13 +5947,13 @@
         <v>16115</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>363</v>
+        <v>153</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5950,13 +5968,13 @@
         <v>379819</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="H26" s="7">
         <v>277</v>
@@ -5965,13 +5983,13 @@
         <v>298894</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M26" s="7">
         <v>636</v>
@@ -5980,13 +5998,13 @@
         <v>678713</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>368</v>
+        <v>162</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6054,13 +6072,13 @@
         <v>85588</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>196</v>
+        <v>166</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="H28" s="7">
         <v>22</v>
@@ -6069,13 +6087,13 @@
         <v>23308</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>388</v>
+        <v>73</v>
       </c>
       <c r="M28" s="7">
         <v>104</v>
@@ -6084,13 +6102,13 @@
         <v>108896</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>389</v>
+        <v>342</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6105,13 +6123,13 @@
         <v>1785021</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
       <c r="H29" s="7">
         <v>1232</v>
@@ -6120,13 +6138,13 @@
         <v>1281522</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>395</v>
+        <v>83</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="M29" s="7">
         <v>2917</v>
@@ -6135,13 +6153,13 @@
         <v>3066543</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>396</v>
+        <v>347</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6197,7 +6215,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P2404-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P2404-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B9850CE-FB7A-49A6-A7E5-7F6F9E785F1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{353656D0-B5C2-4051-A662-9E058C8EEB55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{86645C33-F8AD-436C-AD36-3E28BBA1F49A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EF1EA06D-59AC-46DC-B3EF-42CC96405C26}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="403">
   <si>
     <t>Población según si en las últimas dos semanas han fumado mezcla de tabaco con marihuana o hachís en 2007 (Tasa respuesta: 33,7%)</t>
   </si>
@@ -76,7 +76,7 @@
     <t>7,57%</t>
   </si>
   <si>
-    <t>3,37%</t>
+    <t>3,53%</t>
   </si>
   <si>
     <t>14,11%</t>
@@ -85,1174 +85,1168 @@
     <t>9,87%</t>
   </si>
   <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
   </si>
   <si>
     <t>8,47%</t>
   </si>
   <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>85,89%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>80,93%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>87,74%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si en las últimas dos semanas han fumado mezcla de tabaco con marihuana o hachís en 2012 (Tasa respuesta: 33,26%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>81,08%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>88,4%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>Población según si en las últimas dos semanas han fumado mezcla de tabaco con marihuana o hachís en 2016 (Tasa respuesta: 45,99%)</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>86,5%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
     <t>5,0%</t>
   </si>
   <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>85,89%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>79,42%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
   </si>
   <si>
     <t>95,0%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>87,84%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>84,64%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>90,02%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si en las últimas dos semanas han fumado mezcla de tabaco con marihuana o hachís en 2012 (Tasa respuesta: 33,26%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>81,16%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
   </si>
   <si>
     <t>3,64%</t>
   </si>
   <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
   </si>
   <si>
     <t>96,36%</t>
   </si>
   <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>Población según si en las últimas dos semanas han fumado mezcla de tabaco con marihuana o hachís en 2015 (Tasa respuesta: 45,99%)</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
+    <t>98,67%</t>
   </si>
   <si>
     <t>4,58%</t>
   </si>
   <si>
-    <t>5,58%</t>
+    <t>5,6%</t>
   </si>
   <si>
     <t>1,79%</t>
   </si>
   <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
   </si>
   <si>
     <t>95,42%</t>
   </si>
   <si>
-    <t>94,42%</t>
+    <t>94,4%</t>
   </si>
   <si>
     <t>98,21%</t>
   </si>
   <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
   </si>
 </sst>
 </file>
@@ -1664,7 +1658,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A321A25-718F-4578-914A-5BA2E2E4881C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C23DF86A-60C8-499C-B138-36E75AD38339}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2119,7 +2113,7 @@
         <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="M10" s="7">
         <v>12</v>
@@ -2134,7 +2128,7 @@
         <v>57</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2149,13 +2143,13 @@
         <v>136999</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H11" s="7">
         <v>94</v>
@@ -2164,13 +2158,13 @@
         <v>93957</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M11" s="7">
         <v>226</v>
@@ -2179,13 +2173,13 @@
         <v>230956</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2241,7 +2235,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2253,13 +2247,13 @@
         <v>8967</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -2268,13 +2262,13 @@
         <v>5162</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M13" s="7">
         <v>12</v>
@@ -2283,13 +2277,13 @@
         <v>14129</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2301,16 +2295,16 @@
         <v>162</v>
       </c>
       <c r="D14" s="7">
-        <v>161521</v>
+        <v>161520</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H14" s="7">
         <v>103</v>
@@ -2319,13 +2313,13 @@
         <v>100057</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M14" s="7">
         <v>265</v>
@@ -2334,13 +2328,13 @@
         <v>261577</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2352,7 +2346,7 @@
         <v>170</v>
       </c>
       <c r="D15" s="7">
-        <v>170488</v>
+        <v>170487</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2396,7 +2390,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2408,13 +2402,13 @@
         <v>2000</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>55</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -2423,13 +2417,13 @@
         <v>2972</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -2438,13 +2432,13 @@
         <v>4972</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2459,13 +2453,13 @@
         <v>82329</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H17" s="7">
         <v>54</v>
@@ -2474,13 +2468,13 @@
         <v>56554</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M17" s="7">
         <v>138</v>
@@ -2489,13 +2483,13 @@
         <v>138883</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2551,7 +2545,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2563,13 +2557,13 @@
         <v>1934</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>55</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -2578,13 +2572,13 @@
         <v>1893</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>55</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -2593,13 +2587,13 @@
         <v>3827</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2614,13 +2608,13 @@
         <v>123394</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H20" s="7">
         <v>62</v>
@@ -2629,13 +2623,13 @@
         <v>63114</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M20" s="7">
         <v>184</v>
@@ -2644,13 +2638,13 @@
         <v>186508</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2706,7 +2700,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2718,13 +2712,13 @@
         <v>5602</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -2736,10 +2730,10 @@
         <v>55</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M22" s="7">
         <v>5</v>
@@ -2748,13 +2742,13 @@
         <v>5602</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2769,13 +2763,13 @@
         <v>229374</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="H23" s="7">
         <v>158</v>
@@ -2784,10 +2778,10 @@
         <v>161353</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>30</v>
@@ -2799,13 +2793,13 @@
         <v>390727</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2861,7 +2855,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2873,13 +2867,13 @@
         <v>20921</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="H25" s="7">
         <v>8</v>
@@ -2888,13 +2882,13 @@
         <v>7961</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="M25" s="7">
         <v>29</v>
@@ -2903,13 +2897,13 @@
         <v>28882</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>136</v>
+        <v>52</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2924,13 +2918,13 @@
         <v>296557</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="H26" s="7">
         <v>171</v>
@@ -2939,13 +2933,13 @@
         <v>178407</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="M26" s="7">
         <v>457</v>
@@ -2954,13 +2948,13 @@
         <v>474963</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>146</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3028,13 +3022,13 @@
         <v>73673</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="H28" s="7">
         <v>30</v>
@@ -3043,13 +3037,13 @@
         <v>31944</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="M28" s="7">
         <v>102</v>
@@ -3058,13 +3052,13 @@
         <v>105617</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3079,13 +3073,13 @@
         <v>1311608</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="H29" s="7">
         <v>815</v>
@@ -3094,13 +3088,13 @@
         <v>831386</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="M29" s="7">
         <v>2092</v>
@@ -3109,13 +3103,13 @@
         <v>2142995</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3171,7 +3165,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -3195,7 +3189,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{136025C8-F77E-487F-926B-141A10D8DB8A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F206EE63-54E6-4C99-A7C8-BC692416D251}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3212,7 +3206,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3317,39 +3311,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3362,39 +3356,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3407,39 +3401,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3456,13 +3450,13 @@
         <v>7625</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>167</v>
+        <v>72</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="H7" s="7">
         <v>6</v>
@@ -3471,13 +3465,13 @@
         <v>6066</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="M7" s="7">
         <v>14</v>
@@ -3486,13 +3480,13 @@
         <v>13691</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3507,13 +3501,13 @@
         <v>200480</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>177</v>
+        <v>82</v>
       </c>
       <c r="H8" s="7">
         <v>132</v>
@@ -3522,13 +3516,13 @@
         <v>145152</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M8" s="7">
         <v>315</v>
@@ -3537,13 +3531,13 @@
         <v>345632</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3611,13 +3605,13 @@
         <v>1894</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>55</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -3626,13 +3620,13 @@
         <v>986</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -3641,13 +3635,13 @@
         <v>2880</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3662,13 +3656,13 @@
         <v>125143</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H11" s="7">
         <v>79</v>
@@ -3677,13 +3671,13 @@
         <v>86447</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M11" s="7">
         <v>203</v>
@@ -3692,7 +3686,7 @@
         <v>211591</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>196</v>
@@ -3754,7 +3748,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3909,7 +3903,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3939,7 +3933,7 @@
         <v>55</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>219</v>
@@ -3987,7 +3981,7 @@
         <v>65439</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>226</v>
@@ -4064,7 +4058,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4094,7 +4088,7 @@
         <v>55</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>219</v>
@@ -4133,7 +4127,7 @@
         <v>235</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H20" s="7">
         <v>64</v>
@@ -4142,7 +4136,7 @@
         <v>66879</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>226</v>
@@ -4163,7 +4157,7 @@
         <v>237</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4219,7 +4213,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4374,7 +4368,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4386,13 +4380,13 @@
         <v>12503</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -4401,7 +4395,7 @@
         <v>969</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>202</v>
+        <v>258</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>55</v>
@@ -4419,10 +4413,10 @@
         <v>260</v>
       </c>
       <c r="P25" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4437,13 +4431,13 @@
         <v>283651</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="H26" s="7">
         <v>189</v>
@@ -4452,13 +4446,13 @@
         <v>207867</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>212</v>
+        <v>264</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M26" s="7">
         <v>453</v>
@@ -4467,13 +4461,13 @@
         <v>491519</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="P26" s="7" t="s">
-        <v>268</v>
-      </c>
       <c r="Q26" s="7" t="s">
-        <v>269</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4541,13 +4535,13 @@
         <v>82847</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="H28" s="7">
         <v>16</v>
@@ -4556,13 +4550,13 @@
         <v>16545</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="M28" s="7">
         <v>91</v>
@@ -4571,13 +4565,13 @@
         <v>99392</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>90</v>
+        <v>274</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4592,13 +4586,13 @@
         <v>1271249</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>279</v>
       </c>
       <c r="H29" s="7">
         <v>879</v>
@@ -4607,13 +4601,13 @@
         <v>956644</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="M29" s="7">
         <v>2073</v>
@@ -4622,13 +4616,13 @@
         <v>2227892</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="P29" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4684,7 +4678,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -4708,7 +4702,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16E0F4AB-FBC5-458E-959D-F0E2A0BCED39}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88D278EE-51A9-4C13-829B-810ACD168136}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4847,13 +4841,13 @@
         <v>2642</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>288</v>
+        <v>256</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>55</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="M4" s="7">
         <v>16</v>
@@ -4862,13 +4856,13 @@
         <v>17652</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4883,13 +4877,13 @@
         <v>170128</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="H5" s="7">
         <v>123</v>
@@ -4898,28 +4892,28 @@
         <v>125897</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>296</v>
+        <v>263</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M5" s="7">
         <v>279</v>
       </c>
       <c r="N5" s="7">
-        <v>296025</v>
+        <v>296026</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4961,7 +4955,7 @@
         <v>295</v>
       </c>
       <c r="N6" s="7">
-        <v>313677</v>
+        <v>313678</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4987,13 +4981,13 @@
         <v>14389</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>302</v>
+        <v>57</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -5002,13 +4996,13 @@
         <v>4935</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>304</v>
+        <v>57</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>230</v>
+        <v>301</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>187</v>
+        <v>302</v>
       </c>
       <c r="M7" s="7">
         <v>19</v>
@@ -5017,13 +5011,13 @@
         <v>19324</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5038,13 +5032,13 @@
         <v>279520</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>308</v>
-      </c>
       <c r="G8" s="7" t="s">
-        <v>309</v>
+        <v>66</v>
       </c>
       <c r="H8" s="7">
         <v>165</v>
@@ -5053,13 +5047,13 @@
         <v>173962</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>310</v>
+        <v>66</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>194</v>
+        <v>308</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>234</v>
+        <v>309</v>
       </c>
       <c r="M8" s="7">
         <v>429</v>
@@ -5068,10 +5062,10 @@
         <v>453482</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>312</v>
@@ -5142,13 +5136,13 @@
         <v>9248</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -5157,13 +5151,13 @@
         <v>884</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>315</v>
+        <v>118</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="M10" s="7">
         <v>11</v>
@@ -5172,13 +5166,13 @@
         <v>10133</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5193,13 +5187,13 @@
         <v>156180</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>139</v>
+        <v>318</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>320</v>
+        <v>280</v>
       </c>
       <c r="H11" s="7">
         <v>114</v>
@@ -5208,13 +5202,13 @@
         <v>110940</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>321</v>
+        <v>127</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M11" s="7">
         <v>278</v>
@@ -5223,13 +5217,13 @@
         <v>267119</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>277</v>
+        <v>321</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5285,7 +5279,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5297,13 +5291,13 @@
         <v>14293</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>327</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -5312,13 +5306,13 @@
         <v>4978</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>330</v>
       </c>
       <c r="M13" s="7">
         <v>18</v>
@@ -5330,10 +5324,10 @@
         <v>56</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5348,13 +5342,13 @@
         <v>223785</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>335</v>
       </c>
       <c r="H14" s="7">
         <v>146</v>
@@ -5363,13 +5357,13 @@
         <v>154485</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>336</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>338</v>
       </c>
       <c r="M14" s="7">
         <v>360</v>
@@ -5378,13 +5372,13 @@
         <v>378269</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5440,7 +5434,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5452,13 +5446,13 @@
         <v>947</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>55</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5470,10 +5464,10 @@
         <v>55</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -5482,13 +5476,13 @@
         <v>947</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>344</v>
+        <v>202</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>55</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>345</v>
+        <v>233</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5503,13 +5497,13 @@
         <v>128999</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H17" s="7">
         <v>82</v>
@@ -5518,10 +5512,10 @@
         <v>78322</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>30</v>
@@ -5533,13 +5527,13 @@
         <v>207321</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>349</v>
+        <v>212</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>350</v>
+        <v>237</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5595,7 +5589,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5607,13 +5601,13 @@
         <v>4857</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -5628,7 +5622,7 @@
         <v>55</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="M19" s="7">
         <v>6</v>
@@ -5637,13 +5631,13 @@
         <v>5730</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5658,13 +5652,13 @@
         <v>133725</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="H20" s="7">
         <v>86</v>
@@ -5673,13 +5667,13 @@
         <v>88064</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M20" s="7">
         <v>217</v>
@@ -5688,13 +5682,13 @@
         <v>221789</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5750,7 +5744,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5762,13 +5756,13 @@
         <v>12664</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="H22" s="7">
         <v>7</v>
@@ -5777,13 +5771,13 @@
         <v>7060</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>368</v>
+        <v>259</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="M22" s="7">
         <v>18</v>
@@ -5792,13 +5786,13 @@
         <v>19724</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5813,13 +5807,13 @@
         <v>312865</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="H23" s="7">
         <v>239</v>
@@ -5828,13 +5822,13 @@
         <v>250958</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>377</v>
+        <v>265</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="M23" s="7">
         <v>509</v>
@@ -5843,13 +5837,13 @@
         <v>563823</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5905,7 +5899,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5917,13 +5911,13 @@
         <v>14180</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -5932,13 +5926,13 @@
         <v>1935</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>55</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>387</v>
+        <v>117</v>
       </c>
       <c r="M25" s="7">
         <v>15</v>
@@ -5947,13 +5941,13 @@
         <v>16115</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>91</v>
+        <v>380</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>153</v>
+        <v>381</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5968,13 +5962,13 @@
         <v>379819</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="H26" s="7">
         <v>277</v>
@@ -5983,13 +5977,13 @@
         <v>298894</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>393</v>
+        <v>125</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M26" s="7">
         <v>636</v>
@@ -5998,13 +5992,13 @@
         <v>678713</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>162</v>
+        <v>387</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>100</v>
+        <v>388</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6072,13 +6066,13 @@
         <v>85588</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>166</v>
+        <v>381</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="H28" s="7">
         <v>22</v>
@@ -6087,13 +6081,13 @@
         <v>23308</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>369</v>
+        <v>392</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>73</v>
+        <v>393</v>
       </c>
       <c r="M28" s="7">
         <v>104</v>
@@ -6102,13 +6096,13 @@
         <v>108896</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>342</v>
+        <v>290</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6123,13 +6117,13 @@
         <v>1785021</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>175</v>
+        <v>387</v>
       </c>
       <c r="H29" s="7">
         <v>1232</v>
@@ -6138,13 +6132,13 @@
         <v>1281522</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>83</v>
+        <v>399</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>379</v>
+        <v>400</v>
       </c>
       <c r="M29" s="7">
         <v>2917</v>
@@ -6153,13 +6147,13 @@
         <v>3066543</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>347</v>
+        <v>298</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6215,7 +6209,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P2404-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P2404-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{353656D0-B5C2-4051-A662-9E058C8EEB55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8DCC23BF-2E7C-4592-94F6-C6458892E225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EF1EA06D-59AC-46DC-B3EF-42CC96405C26}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F088C8D9-9C3D-4F91-A218-EA5E4364CE1F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,9 +38,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="403">
-  <si>
-    <t>Población según si en las últimas dos semanas han fumado mezcla de tabaco con marihuana o hachís en 2007 (Tasa respuesta: 33,7%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="355">
+  <si>
+    <t>Población según si en las últimas dos semanas han fumado mezcla de tabaco con marihuana o hachís en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -70,64 +70,64 @@
     <t>Almeria</t>
   </si>
   <si>
-    <t>Si</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>85,89%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>80,93%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
   </si>
   <si>
     <t>100%</t>
@@ -136,1117 +136,973 @@
     <t>Cadiz</t>
   </si>
   <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si en las últimas dos semanas han fumado mezcla de tabaco con marihuana o hachís en 2012 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
     <t>7,74%</t>
   </si>
   <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
   </si>
   <si>
     <t>92,26%</t>
   </si>
   <si>
-    <t>87,74%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>87,88%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>86,93%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>5,52%</t>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
   </si>
   <si>
     <t>2,91%</t>
   </si>
   <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
   </si>
   <si>
     <t>97,09%</t>
   </si>
   <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>2,38%</t>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
   </si>
   <si>
     <t>0,79%</t>
   </si>
   <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
   </si>
   <si>
     <t>99,21%</t>
   </si>
   <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>Población según si en las últimas dos semanas han fumado mezcla de tabaco con marihuana o hachís en 2016 (Tasa respuesta: 99,71%)</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
   </si>
   <si>
     <t>2,07%</t>
   </si>
   <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
   </si>
   <si>
     <t>97,93%</t>
   </si>
   <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si en las últimas dos semanas han fumado mezcla de tabaco con marihuana o hachís en 2012 (Tasa respuesta: 33,26%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
     <t>97,72%</t>
   </si>
   <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>81,08%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
   </si>
   <si>
     <t>1,01%</t>
   </si>
   <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
   </si>
   <si>
     <t>98,99%</t>
   </si>
   <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>88,4%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>Población según si en las últimas dos semanas han fumado mezcla de tabaco con marihuana o hachís en 2016 (Tasa respuesta: 45,99%)</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
-  </si>
-  <si>
-    <t>86,5%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
   </si>
 </sst>
 </file>
@@ -1658,7 +1514,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C23DF86A-60C8-499C-B138-36E75AD38339}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9105C27-72EF-4262-BE58-83EA79247B6D}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1827,10 +1683,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>102</v>
+        <v>263</v>
       </c>
       <c r="D5" s="7">
-        <v>104772</v>
+        <v>264424</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1842,10 +1698,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>62</v>
+        <v>239</v>
       </c>
       <c r="I5" s="7">
-        <v>65175</v>
+        <v>253701</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1857,10 +1713,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>164</v>
+        <v>502</v>
       </c>
       <c r="N5" s="7">
-        <v>169946</v>
+        <v>518125</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1878,10 +1734,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>110</v>
+        <v>271</v>
       </c>
       <c r="D6" s="7">
-        <v>113358</v>
+        <v>273010</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1893,10 +1749,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>68</v>
+        <v>245</v>
       </c>
       <c r="I6" s="7">
-        <v>72312</v>
+        <v>260838</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1908,10 +1764,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>178</v>
+        <v>516</v>
       </c>
       <c r="N6" s="7">
-        <v>185669</v>
+        <v>533848</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1982,10 +1838,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>164</v>
+        <v>449</v>
       </c>
       <c r="D8" s="7">
-        <v>176663</v>
+        <v>477210</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1997,10 +1853,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>111</v>
+        <v>493</v>
       </c>
       <c r="I8" s="7">
-        <v>112770</v>
+        <v>498063</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -2012,10 +1868,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>275</v>
+        <v>942</v>
       </c>
       <c r="N8" s="7">
-        <v>289434</v>
+        <v>975273</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -2033,10 +1889,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>179</v>
+        <v>464</v>
       </c>
       <c r="D9" s="7">
-        <v>191486</v>
+        <v>492033</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2048,10 +1904,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>117</v>
+        <v>499</v>
       </c>
       <c r="I9" s="7">
-        <v>118656</v>
+        <v>503949</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2063,10 +1919,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>296</v>
+        <v>963</v>
       </c>
       <c r="N9" s="7">
-        <v>310143</v>
+        <v>995982</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2113,7 +1969,7 @@
         <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>12</v>
@@ -2122,7 +1978,7 @@
         <v>11772</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>57</v>
@@ -2137,10 +1993,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>132</v>
+        <v>299</v>
       </c>
       <c r="D11" s="7">
-        <v>136999</v>
+        <v>308006</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>59</v>
@@ -2152,28 +2008,28 @@
         <v>61</v>
       </c>
       <c r="H11" s="7">
-        <v>94</v>
+        <v>334</v>
       </c>
       <c r="I11" s="7">
-        <v>93957</v>
+        <v>334480</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>62</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M11" s="7">
-        <v>226</v>
+        <v>633</v>
       </c>
       <c r="N11" s="7">
-        <v>230956</v>
+        <v>642486</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>65</v>
@@ -2188,10 +2044,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>143</v>
+        <v>310</v>
       </c>
       <c r="D12" s="7">
-        <v>147839</v>
+        <v>318846</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2203,10 +2059,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>95</v>
+        <v>335</v>
       </c>
       <c r="I12" s="7">
-        <v>94889</v>
+        <v>335412</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2218,10 +2074,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>238</v>
+        <v>645</v>
       </c>
       <c r="N12" s="7">
-        <v>242728</v>
+        <v>654258</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2265,10 +2121,10 @@
         <v>71</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="M13" s="7">
         <v>12</v>
@@ -2277,13 +2133,13 @@
         <v>14129</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2292,49 +2148,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>162</v>
+        <v>354</v>
       </c>
       <c r="D14" s="7">
-        <v>161520</v>
+        <v>349704</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>380</v>
+      </c>
+      <c r="I14" s="7">
+        <v>366294</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="H14" s="7">
-        <v>103</v>
-      </c>
-      <c r="I14" s="7">
-        <v>100057</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="M14" s="7">
+        <v>734</v>
+      </c>
+      <c r="N14" s="7">
+        <v>715998</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="M14" s="7">
-        <v>265</v>
-      </c>
-      <c r="N14" s="7">
-        <v>261577</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2343,10 +2199,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>170</v>
+        <v>362</v>
       </c>
       <c r="D15" s="7">
-        <v>170487</v>
+        <v>358671</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2358,10 +2214,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>107</v>
+        <v>384</v>
       </c>
       <c r="I15" s="7">
-        <v>105219</v>
+        <v>371456</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2373,10 +2229,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>277</v>
+        <v>746</v>
       </c>
       <c r="N15" s="7">
-        <v>275706</v>
+        <v>730127</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2390,7 +2246,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2402,13 +2258,13 @@
         <v>2000</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>55</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -2417,13 +2273,13 @@
         <v>2972</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -2432,13 +2288,13 @@
         <v>4972</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2447,49 +2303,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>84</v>
+        <v>204</v>
       </c>
       <c r="D17" s="7">
-        <v>82329</v>
+        <v>201308</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H17" s="7">
+        <v>195</v>
+      </c>
+      <c r="I17" s="7">
+        <v>204696</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H17" s="7">
-        <v>54</v>
-      </c>
-      <c r="I17" s="7">
-        <v>56554</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>399</v>
+      </c>
+      <c r="N17" s="7">
+        <v>406004</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="M17" s="7">
-        <v>138</v>
-      </c>
-      <c r="N17" s="7">
-        <v>138883</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2498,10 +2354,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>86</v>
+        <v>206</v>
       </c>
       <c r="D18" s="7">
-        <v>84329</v>
+        <v>203308</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2513,10 +2369,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>57</v>
+        <v>198</v>
       </c>
       <c r="I18" s="7">
-        <v>59526</v>
+        <v>207668</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2528,10 +2384,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>143</v>
+        <v>404</v>
       </c>
       <c r="N18" s="7">
-        <v>143855</v>
+        <v>410976</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2545,7 +2401,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2557,13 +2413,13 @@
         <v>1934</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>55</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -2572,13 +2428,13 @@
         <v>1893</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>55</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -2587,13 +2443,13 @@
         <v>3827</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2602,25 +2458,25 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>122</v>
+        <v>264</v>
       </c>
       <c r="D20" s="7">
-        <v>123394</v>
+        <v>268877</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>110</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H20" s="7">
-        <v>62</v>
+        <v>268</v>
       </c>
       <c r="I20" s="7">
-        <v>63114</v>
+        <v>276251</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>111</v>
@@ -2629,13 +2485,13 @@
         <v>112</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M20" s="7">
-        <v>184</v>
+        <v>532</v>
       </c>
       <c r="N20" s="7">
-        <v>186508</v>
+        <v>545128</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>113</v>
@@ -2653,10 +2509,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>124</v>
+        <v>266</v>
       </c>
       <c r="D21" s="7">
-        <v>125328</v>
+        <v>270811</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2668,10 +2524,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>64</v>
+        <v>270</v>
       </c>
       <c r="I21" s="7">
-        <v>65007</v>
+        <v>278144</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -2683,10 +2539,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>188</v>
+        <v>536</v>
       </c>
       <c r="N21" s="7">
-        <v>190335</v>
+        <v>548955</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2733,7 +2589,7 @@
         <v>120</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="M22" s="7">
         <v>5</v>
@@ -2742,13 +2598,13 @@
         <v>5602</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2757,49 +2613,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>225</v>
+        <v>593</v>
       </c>
       <c r="D23" s="7">
-        <v>229374</v>
+        <v>609425</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="H23" s="7">
+        <v>621</v>
+      </c>
+      <c r="I23" s="7">
+        <v>638219</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M23" s="7">
+        <v>1214</v>
+      </c>
+      <c r="N23" s="7">
+        <v>1247644</v>
+      </c>
+      <c r="O23" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="H23" s="7">
-        <v>158</v>
-      </c>
-      <c r="I23" s="7">
-        <v>161353</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="K23" s="7" t="s">
+      <c r="P23" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="L23" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M23" s="7">
-        <v>383</v>
-      </c>
-      <c r="N23" s="7">
-        <v>390727</v>
-      </c>
-      <c r="O23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2808,10 +2664,10 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
-        <v>230</v>
+        <v>598</v>
       </c>
       <c r="D24" s="7">
-        <v>234976</v>
+        <v>615027</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -2823,10 +2679,10 @@
         <v>30</v>
       </c>
       <c r="H24" s="7">
-        <v>158</v>
+        <v>621</v>
       </c>
       <c r="I24" s="7">
-        <v>161353</v>
+        <v>638219</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -2838,10 +2694,10 @@
         <v>30</v>
       </c>
       <c r="M24" s="7">
-        <v>388</v>
+        <v>1219</v>
       </c>
       <c r="N24" s="7">
-        <v>396329</v>
+        <v>1253246</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -2855,7 +2711,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2867,13 +2723,13 @@
         <v>20921</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H25" s="7">
         <v>8</v>
@@ -2882,13 +2738,13 @@
         <v>7961</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>136</v>
+        <v>74</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="M25" s="7">
         <v>29</v>
@@ -2897,13 +2753,13 @@
         <v>28882</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>52</v>
+        <v>137</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2912,49 +2768,49 @@
         <v>20</v>
       </c>
       <c r="C26" s="7">
-        <v>286</v>
+        <v>715</v>
       </c>
       <c r="D26" s="7">
-        <v>296557</v>
+        <v>722874</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="H26" s="7">
+        <v>737</v>
+      </c>
+      <c r="I26" s="7">
+        <v>775550</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="H26" s="7">
-        <v>171</v>
-      </c>
-      <c r="I26" s="7">
-        <v>178407</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="M26" s="7">
+        <v>1452</v>
+      </c>
+      <c r="N26" s="7">
+        <v>1498424</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="P26" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="L26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="M26" s="7">
-        <v>457</v>
-      </c>
-      <c r="N26" s="7">
-        <v>474963</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2963,10 +2819,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>307</v>
+        <v>736</v>
       </c>
       <c r="D27" s="7">
-        <v>317478</v>
+        <v>743795</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -2978,10 +2834,10 @@
         <v>30</v>
       </c>
       <c r="H27" s="7">
-        <v>179</v>
+        <v>745</v>
       </c>
       <c r="I27" s="7">
-        <v>186368</v>
+        <v>783511</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -2993,10 +2849,10 @@
         <v>30</v>
       </c>
       <c r="M27" s="7">
-        <v>486</v>
+        <v>1481</v>
       </c>
       <c r="N27" s="7">
-        <v>503845</v>
+        <v>1527306</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -3022,13 +2878,13 @@
         <v>73673</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>150</v>
+        <v>33</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H28" s="7">
         <v>30</v>
@@ -3037,13 +2893,13 @@
         <v>31944</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="M28" s="7">
         <v>102</v>
@@ -3052,13 +2908,13 @@
         <v>105617</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>157</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3067,49 +2923,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>1277</v>
+        <v>3141</v>
       </c>
       <c r="D29" s="7">
-        <v>1311608</v>
+        <v>3201828</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H29" s="7">
+        <v>3267</v>
+      </c>
+      <c r="I29" s="7">
+        <v>3347254</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="M29" s="7">
+        <v>6408</v>
+      </c>
+      <c r="N29" s="7">
+        <v>6549081</v>
+      </c>
+      <c r="O29" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="P29" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="H29" s="7">
-        <v>815</v>
-      </c>
-      <c r="I29" s="7">
-        <v>831386</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="M29" s="7">
-        <v>2092</v>
-      </c>
-      <c r="N29" s="7">
-        <v>2142995</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3118,10 +2974,10 @@
         <v>3</v>
       </c>
       <c r="C30" s="7">
-        <v>1349</v>
+        <v>3213</v>
       </c>
       <c r="D30" s="7">
-        <v>1385281</v>
+        <v>3275501</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -3133,10 +2989,10 @@
         <v>30</v>
       </c>
       <c r="H30" s="7">
-        <v>845</v>
+        <v>3297</v>
       </c>
       <c r="I30" s="7">
-        <v>863330</v>
+        <v>3379198</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -3148,10 +3004,10 @@
         <v>30</v>
       </c>
       <c r="M30" s="7">
-        <v>2194</v>
+        <v>6510</v>
       </c>
       <c r="N30" s="7">
-        <v>2248612</v>
+        <v>6654698</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -3165,7 +3021,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -3189,7 +3045,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F206EE63-54E6-4C99-A7C8-BC692416D251}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42D941C3-8F7F-4C69-BF90-AF844383574A}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3206,7 +3062,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3311,39 +3167,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3356,39 +3212,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3401,39 +3257,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3450,13 +3306,13 @@
         <v>7625</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>72</v>
+        <v>165</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="H7" s="7">
         <v>6</v>
@@ -3465,13 +3321,13 @@
         <v>6066</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>172</v>
+        <v>15</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>174</v>
+        <v>68</v>
       </c>
       <c r="M7" s="7">
         <v>14</v>
@@ -3480,13 +3336,13 @@
         <v>13691</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3495,49 +3351,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>183</v>
+        <v>464</v>
       </c>
       <c r="D8" s="7">
-        <v>200480</v>
+        <v>497902</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>82</v>
+        <v>173</v>
       </c>
       <c r="H8" s="7">
-        <v>132</v>
+        <v>474</v>
       </c>
       <c r="I8" s="7">
-        <v>145152</v>
+        <v>517699</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>180</v>
+        <v>26</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>181</v>
+        <v>76</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="M8" s="7">
-        <v>315</v>
+        <v>938</v>
       </c>
       <c r="N8" s="7">
-        <v>345632</v>
+        <v>1015601</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3546,10 +3402,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>191</v>
+        <v>472</v>
       </c>
       <c r="D9" s="7">
-        <v>208105</v>
+        <v>505527</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3561,10 +3417,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>138</v>
+        <v>480</v>
       </c>
       <c r="I9" s="7">
-        <v>151218</v>
+        <v>523765</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3576,10 +3432,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>329</v>
+        <v>952</v>
       </c>
       <c r="N9" s="7">
-        <v>359323</v>
+        <v>1029292</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3605,13 +3461,13 @@
         <v>1894</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>55</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>187</v>
+        <v>52</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -3620,13 +3476,13 @@
         <v>986</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -3635,13 +3491,13 @@
         <v>2880</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>173</v>
+        <v>91</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>190</v>
+        <v>55</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>191</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3650,49 +3506,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>124</v>
+        <v>317</v>
       </c>
       <c r="D11" s="7">
-        <v>125143</v>
+        <v>322152</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>193</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H11" s="7">
-        <v>79</v>
+        <v>315</v>
       </c>
       <c r="I11" s="7">
-        <v>86447</v>
+        <v>339048</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M11" s="7">
-        <v>203</v>
+        <v>632</v>
       </c>
       <c r="N11" s="7">
-        <v>211591</v>
+        <v>661200</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>182</v>
+        <v>100</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>196</v>
+        <v>26</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>197</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3701,10 +3557,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>126</v>
+        <v>319</v>
       </c>
       <c r="D12" s="7">
-        <v>127037</v>
+        <v>324046</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3716,10 +3572,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>80</v>
+        <v>316</v>
       </c>
       <c r="I12" s="7">
-        <v>87433</v>
+        <v>340034</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3731,10 +3587,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>206</v>
+        <v>635</v>
       </c>
       <c r="N12" s="7">
-        <v>214471</v>
+        <v>664080</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3760,13 +3616,13 @@
         <v>36025</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -3775,13 +3631,13 @@
         <v>3757</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="M13" s="7">
         <v>36</v>
@@ -3790,13 +3646,13 @@
         <v>39782</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3805,49 +3661,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>217</v>
+        <v>593</v>
       </c>
       <c r="D14" s="7">
-        <v>231441</v>
+        <v>631754</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="H14" s="7">
-        <v>178</v>
+        <v>621</v>
       </c>
       <c r="I14" s="7">
-        <v>196018</v>
+        <v>670300</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="M14" s="7">
-        <v>395</v>
+        <v>1214</v>
       </c>
       <c r="N14" s="7">
-        <v>427459</v>
+        <v>1302054</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3856,10 +3712,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>249</v>
+        <v>625</v>
       </c>
       <c r="D15" s="7">
-        <v>267466</v>
+        <v>667779</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3871,10 +3727,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>182</v>
+        <v>625</v>
       </c>
       <c r="I15" s="7">
-        <v>199775</v>
+        <v>674057</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3886,10 +3742,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>431</v>
+        <v>1250</v>
       </c>
       <c r="N15" s="7">
-        <v>467241</v>
+        <v>1341836</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3903,7 +3759,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3915,13 +3771,13 @@
         <v>2911</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>217</v>
+        <v>91</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3936,7 +3792,7 @@
         <v>120</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -3945,13 +3801,13 @@
         <v>2911</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>222</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3960,49 +3816,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>81</v>
+        <v>193</v>
       </c>
       <c r="D17" s="7">
-        <v>88488</v>
+        <v>209707</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>225</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
+        <v>212</v>
+      </c>
+      <c r="I17" s="7">
+        <v>219591</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="I17" s="7">
-        <v>65439</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>63</v>
-      </c>
       <c r="K17" s="7" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>30</v>
       </c>
       <c r="M17" s="7">
-        <v>145</v>
+        <v>405</v>
       </c>
       <c r="N17" s="7">
-        <v>153928</v>
+        <v>429298</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>228</v>
+        <v>141</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4011,10 +3867,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>84</v>
+        <v>196</v>
       </c>
       <c r="D18" s="7">
-        <v>91399</v>
+        <v>212618</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4026,10 +3882,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>64</v>
+        <v>212</v>
       </c>
       <c r="I18" s="7">
-        <v>65439</v>
+        <v>219591</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4041,10 +3897,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>148</v>
+        <v>408</v>
       </c>
       <c r="N18" s="7">
-        <v>156839</v>
+        <v>432209</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4058,7 +3914,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4070,13 +3926,13 @@
         <v>911</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>55</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>231</v>
+        <v>33</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -4091,7 +3947,7 @@
         <v>120</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>219</v>
+        <v>102</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -4100,13 +3956,13 @@
         <v>911</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>232</v>
+        <v>122</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>55</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>233</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4115,49 +3971,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>81</v>
+        <v>260</v>
       </c>
       <c r="D20" s="7">
-        <v>82829</v>
+        <v>273070</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>234</v>
+        <v>213</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>235</v>
+        <v>43</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H20" s="7">
+        <v>269</v>
+      </c>
+      <c r="I20" s="7">
+        <v>280031</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="I20" s="7">
-        <v>66879</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>63</v>
-      </c>
       <c r="K20" s="7" t="s">
-        <v>226</v>
+        <v>109</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>30</v>
       </c>
       <c r="M20" s="7">
-        <v>145</v>
+        <v>529</v>
       </c>
       <c r="N20" s="7">
-        <v>149708</v>
+        <v>553101</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>236</v>
+        <v>129</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>237</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4166,10 +4022,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>82</v>
+        <v>261</v>
       </c>
       <c r="D21" s="7">
-        <v>83740</v>
+        <v>273981</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -4181,10 +4037,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>64</v>
+        <v>269</v>
       </c>
       <c r="I21" s="7">
-        <v>66879</v>
+        <v>280031</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -4196,10 +4052,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>146</v>
+        <v>530</v>
       </c>
       <c r="N21" s="7">
-        <v>150619</v>
+        <v>554012</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -4225,13 +4081,13 @@
         <v>20978</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>240</v>
+        <v>216</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
@@ -4240,13 +4096,13 @@
         <v>4767</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>241</v>
+        <v>217</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>243</v>
+        <v>219</v>
       </c>
       <c r="M22" s="7">
         <v>23</v>
@@ -4255,13 +4111,13 @@
         <v>25745</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>244</v>
+        <v>220</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4270,49 +4126,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>244</v>
+        <v>599</v>
       </c>
       <c r="D23" s="7">
-        <v>259216</v>
+        <v>641810</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>247</v>
+        <v>223</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>248</v>
+        <v>224</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>249</v>
+        <v>225</v>
       </c>
       <c r="H23" s="7">
-        <v>173</v>
+        <v>631</v>
       </c>
       <c r="I23" s="7">
-        <v>188841</v>
+        <v>688144</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>250</v>
+        <v>226</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>251</v>
+        <v>227</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
       <c r="M23" s="7">
-        <v>417</v>
+        <v>1230</v>
       </c>
       <c r="N23" s="7">
-        <v>448057</v>
+        <v>1329954</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>253</v>
+        <v>229</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>255</v>
+        <v>231</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4321,10 +4177,10 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
-        <v>263</v>
+        <v>618</v>
       </c>
       <c r="D24" s="7">
-        <v>280194</v>
+        <v>662788</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -4336,10 +4192,10 @@
         <v>30</v>
       </c>
       <c r="H24" s="7">
-        <v>177</v>
+        <v>635</v>
       </c>
       <c r="I24" s="7">
-        <v>193608</v>
+        <v>692911</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -4351,10 +4207,10 @@
         <v>30</v>
       </c>
       <c r="M24" s="7">
-        <v>440</v>
+        <v>1253</v>
       </c>
       <c r="N24" s="7">
-        <v>473802</v>
+        <v>1355699</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -4368,7 +4224,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4380,13 +4236,13 @@
         <v>12503</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>134</v>
+        <v>232</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>256</v>
+        <v>233</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>257</v>
+        <v>234</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -4395,13 +4251,13 @@
         <v>969</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>258</v>
+        <v>235</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>55</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>259</v>
+        <v>236</v>
       </c>
       <c r="M25" s="7">
         <v>11</v>
@@ -4410,13 +4266,13 @@
         <v>13471</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>260</v>
+        <v>237</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>261</v>
+        <v>238</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4425,49 +4281,49 @@
         <v>20</v>
       </c>
       <c r="C26" s="7">
-        <v>264</v>
+        <v>706</v>
       </c>
       <c r="D26" s="7">
-        <v>283651</v>
+        <v>765566</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>143</v>
+        <v>239</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>262</v>
+        <v>240</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
       <c r="H26" s="7">
-        <v>189</v>
+        <v>755</v>
       </c>
       <c r="I26" s="7">
-        <v>207867</v>
+        <v>821888</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M26" s="7">
-        <v>453</v>
+        <v>1461</v>
       </c>
       <c r="N26" s="7">
-        <v>491519</v>
+        <v>1587455</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>266</v>
+        <v>244</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>267</v>
+        <v>245</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4476,10 +4332,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>274</v>
+        <v>716</v>
       </c>
       <c r="D27" s="7">
-        <v>296154</v>
+        <v>778069</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -4491,10 +4347,10 @@
         <v>30</v>
       </c>
       <c r="H27" s="7">
-        <v>190</v>
+        <v>756</v>
       </c>
       <c r="I27" s="7">
-        <v>208836</v>
+        <v>822857</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -4506,10 +4362,10 @@
         <v>30</v>
       </c>
       <c r="M27" s="7">
-        <v>464</v>
+        <v>1472</v>
       </c>
       <c r="N27" s="7">
-        <v>504990</v>
+        <v>1600926</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -4535,13 +4391,13 @@
         <v>82847</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>269</v>
+        <v>247</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>270</v>
+        <v>248</v>
       </c>
       <c r="H28" s="7">
         <v>16</v>
@@ -4550,13 +4406,13 @@
         <v>16545</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>271</v>
+        <v>249</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>272</v>
+        <v>54</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>273</v>
+        <v>250</v>
       </c>
       <c r="M28" s="7">
         <v>91</v>
@@ -4565,13 +4421,13 @@
         <v>99392</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>136</v>
+        <v>238</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>274</v>
+        <v>15</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>275</v>
+        <v>251</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4580,49 +4436,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>1194</v>
+        <v>3132</v>
       </c>
       <c r="D29" s="7">
-        <v>1271249</v>
+        <v>3341961</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>276</v>
+        <v>252</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="H29" s="7">
-        <v>879</v>
+        <v>3277</v>
       </c>
       <c r="I29" s="7">
-        <v>956644</v>
+        <v>3536701</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>279</v>
+        <v>255</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>280</v>
+        <v>256</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>281</v>
+        <v>62</v>
       </c>
       <c r="M29" s="7">
-        <v>2073</v>
+        <v>6409</v>
       </c>
       <c r="N29" s="7">
-        <v>2227892</v>
+        <v>6878662</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>144</v>
+        <v>245</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>282</v>
+        <v>257</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>283</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4631,10 +4487,10 @@
         <v>3</v>
       </c>
       <c r="C30" s="7">
-        <v>1269</v>
+        <v>3207</v>
       </c>
       <c r="D30" s="7">
-        <v>1354096</v>
+        <v>3424808</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -4646,10 +4502,10 @@
         <v>30</v>
       </c>
       <c r="H30" s="7">
-        <v>895</v>
+        <v>3293</v>
       </c>
       <c r="I30" s="7">
-        <v>973189</v>
+        <v>3553246</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -4661,10 +4517,10 @@
         <v>30</v>
       </c>
       <c r="M30" s="7">
-        <v>2164</v>
+        <v>6500</v>
       </c>
       <c r="N30" s="7">
-        <v>2327284</v>
+        <v>6978054</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -4678,7 +4534,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -4702,7 +4558,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88D278EE-51A9-4C13-829B-810ACD168136}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C91A83B-2DDE-4232-9E0A-C13161ECA0F1}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4719,7 +4575,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>284</v>
+        <v>258</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4826,13 +4682,13 @@
         <v>15010</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>285</v>
+        <v>259</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>286</v>
+        <v>248</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>287</v>
+        <v>260</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -4841,13 +4697,13 @@
         <v>2642</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>55</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>288</v>
+        <v>262</v>
       </c>
       <c r="M4" s="7">
         <v>16</v>
@@ -4856,13 +4712,13 @@
         <v>17652</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>289</v>
+        <v>263</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>290</v>
+        <v>264</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>291</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4871,49 +4727,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>156</v>
+        <v>250</v>
       </c>
       <c r="D5" s="7">
-        <v>170128</v>
+        <v>276813</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>292</v>
+        <v>266</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>293</v>
+        <v>267</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>294</v>
+        <v>253</v>
       </c>
       <c r="H5" s="7">
-        <v>123</v>
+        <v>275</v>
       </c>
       <c r="I5" s="7">
-        <v>125897</v>
+        <v>286061</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>295</v>
+        <v>269</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M5" s="7">
-        <v>279</v>
+        <v>525</v>
       </c>
       <c r="N5" s="7">
-        <v>296026</v>
+        <v>562874</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>296</v>
+        <v>270</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>298</v>
+        <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4922,10 +4778,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>170</v>
+        <v>264</v>
       </c>
       <c r="D6" s="7">
-        <v>185138</v>
+        <v>291823</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -4937,10 +4793,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>125</v>
+        <v>277</v>
       </c>
       <c r="I6" s="7">
-        <v>128539</v>
+        <v>288703</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4952,10 +4808,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>295</v>
+        <v>541</v>
       </c>
       <c r="N6" s="7">
-        <v>313678</v>
+        <v>580526</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4981,13 +4837,13 @@
         <v>14389</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>299</v>
+        <v>273</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -4996,13 +4852,13 @@
         <v>4935</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>57</v>
+        <v>149</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>301</v>
+        <v>275</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>302</v>
+        <v>170</v>
       </c>
       <c r="M7" s="7">
         <v>19</v>
@@ -5011,13 +4867,13 @@
         <v>19324</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>303</v>
+        <v>136</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>305</v>
+        <v>277</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5026,49 +4882,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>264</v>
+        <v>460</v>
       </c>
       <c r="D8" s="7">
-        <v>279520</v>
+        <v>487322</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>306</v>
+        <v>278</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>307</v>
+        <v>279</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="H8" s="7">
-        <v>165</v>
+        <v>476</v>
       </c>
       <c r="I8" s="7">
-        <v>173962</v>
+        <v>514966</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>66</v>
+        <v>156</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>308</v>
+        <v>176</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>309</v>
+        <v>280</v>
       </c>
       <c r="M8" s="7">
-        <v>429</v>
+        <v>936</v>
       </c>
       <c r="N8" s="7">
-        <v>453482</v>
+        <v>1002288</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>310</v>
+        <v>144</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>311</v>
+        <v>281</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>312</v>
+        <v>282</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5077,10 +4933,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>278</v>
+        <v>474</v>
       </c>
       <c r="D9" s="7">
-        <v>293909</v>
+        <v>501711</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5092,10 +4948,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>170</v>
+        <v>481</v>
       </c>
       <c r="I9" s="7">
-        <v>178897</v>
+        <v>519901</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5107,10 +4963,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>448</v>
+        <v>955</v>
       </c>
       <c r="N9" s="7">
-        <v>472806</v>
+        <v>1021612</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5136,13 +4992,13 @@
         <v>9248</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>302</v>
+        <v>222</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>313</v>
+        <v>284</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -5151,13 +5007,13 @@
         <v>884</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>118</v>
+        <v>285</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>314</v>
+        <v>152</v>
       </c>
       <c r="M10" s="7">
         <v>11</v>
@@ -5166,13 +5022,13 @@
         <v>10133</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>315</v>
+        <v>286</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>316</v>
+        <v>287</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>317</v>
+        <v>288</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5181,49 +5037,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>164</v>
+        <v>324</v>
       </c>
       <c r="D11" s="7">
-        <v>156180</v>
+        <v>308452</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>308</v>
+        <v>230</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>318</v>
+        <v>289</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="H11" s="7">
-        <v>114</v>
+        <v>331</v>
       </c>
       <c r="I11" s="7">
-        <v>110940</v>
+        <v>335425</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>127</v>
+        <v>291</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>319</v>
+        <v>159</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M11" s="7">
-        <v>278</v>
+        <v>655</v>
       </c>
       <c r="N11" s="7">
-        <v>267119</v>
+        <v>643876</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>320</v>
+        <v>292</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>321</v>
+        <v>293</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5232,10 +5088,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>174</v>
+        <v>334</v>
       </c>
       <c r="D12" s="7">
-        <v>165428</v>
+        <v>317700</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5247,10 +5103,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>115</v>
+        <v>332</v>
       </c>
       <c r="I12" s="7">
-        <v>111824</v>
+        <v>336309</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -5262,10 +5118,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>289</v>
+        <v>666</v>
       </c>
       <c r="N12" s="7">
-        <v>277252</v>
+        <v>654009</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -5291,13 +5147,13 @@
         <v>14293</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>323</v>
+        <v>295</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>324</v>
+        <v>296</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>325</v>
+        <v>297</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -5306,13 +5162,13 @@
         <v>4978</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>326</v>
+        <v>153</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>327</v>
+        <v>134</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>328</v>
+        <v>298</v>
       </c>
       <c r="M13" s="7">
         <v>18</v>
@@ -5321,13 +5177,13 @@
         <v>19272</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>56</v>
+        <v>299</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>329</v>
+        <v>300</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>330</v>
+        <v>301</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5336,49 +5192,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>214</v>
+        <v>340</v>
       </c>
       <c r="D14" s="7">
-        <v>223785</v>
+        <v>355671</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>331</v>
+        <v>302</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>332</v>
+        <v>303</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>333</v>
+        <v>304</v>
       </c>
       <c r="H14" s="7">
-        <v>146</v>
+        <v>353</v>
       </c>
       <c r="I14" s="7">
-        <v>154485</v>
+        <v>381020</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>334</v>
+        <v>160</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>335</v>
+        <v>305</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>336</v>
+        <v>143</v>
       </c>
       <c r="M14" s="7">
-        <v>360</v>
+        <v>693</v>
       </c>
       <c r="N14" s="7">
-        <v>378269</v>
+        <v>736690</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>64</v>
+        <v>306</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>337</v>
+        <v>307</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>338</v>
+        <v>308</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5387,10 +5243,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>228</v>
+        <v>354</v>
       </c>
       <c r="D15" s="7">
-        <v>238078</v>
+        <v>369964</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -5402,10 +5258,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>150</v>
+        <v>357</v>
       </c>
       <c r="I15" s="7">
-        <v>159463</v>
+        <v>385998</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -5417,10 +5273,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>378</v>
+        <v>711</v>
       </c>
       <c r="N15" s="7">
-        <v>397541</v>
+        <v>755962</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5434,7 +5290,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5446,13 +5302,13 @@
         <v>947</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>339</v>
+        <v>121</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>55</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>340</v>
+        <v>309</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5467,7 +5323,7 @@
         <v>120</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>341</v>
+        <v>310</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -5476,13 +5332,13 @@
         <v>947</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>55</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>233</v>
+        <v>311</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5491,49 +5347,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>211</v>
+      </c>
+      <c r="D17" s="7">
+        <v>210274</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="D17" s="7">
-        <v>128999</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>342</v>
-      </c>
       <c r="F17" s="7" t="s">
-        <v>343</v>
+        <v>312</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H17" s="7">
-        <v>82</v>
+        <v>223</v>
       </c>
       <c r="I17" s="7">
-        <v>78322</v>
+        <v>218587</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>344</v>
+        <v>313</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>30</v>
       </c>
       <c r="M17" s="7">
-        <v>209</v>
+        <v>434</v>
       </c>
       <c r="N17" s="7">
-        <v>207321</v>
+        <v>428861</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>237</v>
+        <v>314</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5542,10 +5398,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>128</v>
+        <v>212</v>
       </c>
       <c r="D18" s="7">
-        <v>129946</v>
+        <v>211221</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -5557,10 +5413,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>82</v>
+        <v>223</v>
       </c>
       <c r="I18" s="7">
-        <v>78322</v>
+        <v>218587</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5572,10 +5428,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>210</v>
+        <v>435</v>
       </c>
       <c r="N18" s="7">
-        <v>208268</v>
+        <v>429808</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -5589,7 +5445,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5601,13 +5457,13 @@
         <v>4857</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>345</v>
+        <v>132</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>346</v>
+        <v>287</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>347</v>
+        <v>315</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -5616,13 +5472,13 @@
         <v>873</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>54</v>
+        <v>316</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>55</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>348</v>
+        <v>317</v>
       </c>
       <c r="M19" s="7">
         <v>6</v>
@@ -5631,13 +5487,13 @@
         <v>5730</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>349</v>
+        <v>318</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>350</v>
+        <v>319</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>351</v>
+        <v>320</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5646,49 +5502,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>131</v>
+        <v>253</v>
       </c>
       <c r="D20" s="7">
-        <v>133725</v>
+        <v>257228</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>352</v>
+        <v>141</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>353</v>
+        <v>321</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>354</v>
+        <v>294</v>
       </c>
       <c r="H20" s="7">
-        <v>86</v>
+        <v>261</v>
       </c>
       <c r="I20" s="7">
-        <v>88064</v>
+        <v>271321</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>62</v>
+        <v>322</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>355</v>
+        <v>323</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M20" s="7">
-        <v>217</v>
+        <v>514</v>
       </c>
       <c r="N20" s="7">
-        <v>221789</v>
+        <v>528550</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>356</v>
+        <v>324</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>357</v>
+        <v>325</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>358</v>
+        <v>326</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5697,10 +5553,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>136</v>
+        <v>258</v>
       </c>
       <c r="D21" s="7">
-        <v>138582</v>
+        <v>262085</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -5712,10 +5568,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>87</v>
+        <v>262</v>
       </c>
       <c r="I21" s="7">
-        <v>88937</v>
+        <v>272194</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -5727,10 +5583,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>223</v>
+        <v>520</v>
       </c>
       <c r="N21" s="7">
-        <v>227519</v>
+        <v>534280</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -5756,13 +5612,13 @@
         <v>12664</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>359</v>
+        <v>73</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>360</v>
+        <v>327</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>361</v>
+        <v>328</v>
       </c>
       <c r="H22" s="7">
         <v>7</v>
@@ -5771,13 +5627,13 @@
         <v>7060</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>259</v>
+        <v>327</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>362</v>
+        <v>88</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>363</v>
+        <v>329</v>
       </c>
       <c r="M22" s="7">
         <v>18</v>
@@ -5786,13 +5642,13 @@
         <v>19724</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>364</v>
+        <v>180</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>365</v>
+        <v>261</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>366</v>
+        <v>330</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5801,49 +5657,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>270</v>
+        <v>565</v>
       </c>
       <c r="D23" s="7">
-        <v>312865</v>
+        <v>639578</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>367</v>
+        <v>81</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>368</v>
+        <v>331</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="H23" s="7">
-        <v>239</v>
+        <v>635</v>
       </c>
       <c r="I23" s="7">
-        <v>250958</v>
+        <v>679856</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>265</v>
+        <v>332</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>370</v>
+        <v>333</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>371</v>
+        <v>97</v>
       </c>
       <c r="M23" s="7">
-        <v>509</v>
+        <v>1200</v>
       </c>
       <c r="N23" s="7">
-        <v>563823</v>
+        <v>1319434</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>372</v>
+        <v>183</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>373</v>
+        <v>334</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>374</v>
+        <v>268</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5852,10 +5708,10 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
-        <v>281</v>
+        <v>576</v>
       </c>
       <c r="D24" s="7">
-        <v>325529</v>
+        <v>652242</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -5867,10 +5723,10 @@
         <v>30</v>
       </c>
       <c r="H24" s="7">
-        <v>246</v>
+        <v>642</v>
       </c>
       <c r="I24" s="7">
-        <v>258018</v>
+        <v>686916</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -5882,10 +5738,10 @@
         <v>30</v>
       </c>
       <c r="M24" s="7">
-        <v>527</v>
+        <v>1218</v>
       </c>
       <c r="N24" s="7">
-        <v>583547</v>
+        <v>1339158</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -5899,7 +5755,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5911,13 +5767,13 @@
         <v>14180</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>375</v>
+        <v>247</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>376</v>
+        <v>123</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>377</v>
+        <v>335</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -5926,13 +5782,13 @@
         <v>1935</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>378</v>
+        <v>336</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>55</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>117</v>
+        <v>250</v>
       </c>
       <c r="M25" s="7">
         <v>15</v>
@@ -5941,13 +5797,13 @@
         <v>16115</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>379</v>
+        <v>337</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>380</v>
+        <v>187</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>381</v>
+        <v>338</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5956,49 +5812,49 @@
         <v>20</v>
       </c>
       <c r="C26" s="7">
-        <v>359</v>
+        <v>736</v>
       </c>
       <c r="D26" s="7">
-        <v>379819</v>
+        <v>762678</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>382</v>
+        <v>254</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>383</v>
+        <v>339</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>384</v>
+        <v>128</v>
       </c>
       <c r="H26" s="7">
-        <v>277</v>
+        <v>753</v>
       </c>
       <c r="I26" s="7">
-        <v>298894</v>
+        <v>824232</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>385</v>
+        <v>340</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>125</v>
+        <v>256</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M26" s="7">
-        <v>636</v>
+        <v>1489</v>
       </c>
       <c r="N26" s="7">
-        <v>678713</v>
+        <v>1586910</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>386</v>
+        <v>341</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>387</v>
+        <v>342</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>388</v>
+        <v>196</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6007,10 +5863,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>372</v>
+        <v>749</v>
       </c>
       <c r="D27" s="7">
-        <v>393999</v>
+        <v>776858</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -6022,10 +5878,10 @@
         <v>30</v>
       </c>
       <c r="H27" s="7">
-        <v>279</v>
+        <v>755</v>
       </c>
       <c r="I27" s="7">
-        <v>300829</v>
+        <v>826167</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -6037,10 +5893,10 @@
         <v>30</v>
       </c>
       <c r="M27" s="7">
-        <v>651</v>
+        <v>1504</v>
       </c>
       <c r="N27" s="7">
-        <v>694828</v>
+        <v>1603025</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -6066,13 +5922,13 @@
         <v>85588</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>389</v>
+        <v>37</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>381</v>
+        <v>343</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>390</v>
+        <v>344</v>
       </c>
       <c r="H28" s="7">
         <v>22</v>
@@ -6081,13 +5937,13 @@
         <v>23308</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>391</v>
+        <v>345</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>392</v>
+        <v>346</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>393</v>
+        <v>337</v>
       </c>
       <c r="M28" s="7">
         <v>104</v>
@@ -6096,13 +5952,13 @@
         <v>108896</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>394</v>
+        <v>347</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>395</v>
+        <v>348</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6111,49 +5967,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>1685</v>
+        <v>3139</v>
       </c>
       <c r="D29" s="7">
-        <v>1785021</v>
+        <v>3298016</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>396</v>
+        <v>45</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>397</v>
+        <v>349</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
       <c r="H29" s="7">
-        <v>1232</v>
+        <v>3307</v>
       </c>
       <c r="I29" s="7">
-        <v>1281522</v>
+        <v>3511468</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>398</v>
+        <v>351</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>399</v>
+        <v>341</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>400</v>
+        <v>352</v>
       </c>
       <c r="M29" s="7">
-        <v>2917</v>
+        <v>6446</v>
       </c>
       <c r="N29" s="7">
-        <v>3066543</v>
+        <v>6809484</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>401</v>
+        <v>353</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>402</v>
+        <v>354</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6162,10 +6018,10 @@
         <v>3</v>
       </c>
       <c r="C30" s="7">
-        <v>1767</v>
+        <v>3221</v>
       </c>
       <c r="D30" s="7">
-        <v>1870609</v>
+        <v>3383604</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -6177,10 +6033,10 @@
         <v>30</v>
       </c>
       <c r="H30" s="7">
-        <v>1254</v>
+        <v>3329</v>
       </c>
       <c r="I30" s="7">
-        <v>1304830</v>
+        <v>3534776</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -6192,10 +6048,10 @@
         <v>30</v>
       </c>
       <c r="M30" s="7">
-        <v>3021</v>
+        <v>6550</v>
       </c>
       <c r="N30" s="7">
-        <v>3175439</v>
+        <v>6918380</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -6209,7 +6065,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
